--- a/error_threshold/灌云明阳4.0故障阈值.xlsx
+++ b/error_threshold/灌云明阳4.0故障阈值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12090"/>
+    <workbookView windowWidth="28800" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>scene_name</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>发电机后轴承温度</t>
-  </si>
-  <si>
-    <t>齿轮箱主轴承发电机侧温度T3</t>
   </si>
   <si>
     <t>齿轮箱油温</t>
@@ -1036,10 +1033,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="$A5:$XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1120,20 +1117,18 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>60</v>
       </c>
-      <c r="C5" s="1">
-        <v>65</v>
-      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>70</v>
       </c>
       <c r="E5" s="1">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1141,14 +1136,14 @@
         <v>9</v>
       </c>
       <c r="B6" s="1">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="E6" s="1">
-        <v>60</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1223,21 +1218,6 @@
         <v>145</v>
       </c>
       <c r="E11" s="1">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="1">
-        <v>135</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1">
-        <v>145</v>
-      </c>
-      <c r="E12" s="1">
         <v>130</v>
       </c>
     </row>
